--- a/4.2.Annual-Cash-Flows-and-Profits-Guide-Spreadsheet.xlsx
+++ b/4.2.Annual-Cash-Flows-and-Profits-Guide-Spreadsheet.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Project_Increasing real estate management profits/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25280" windowHeight="15460" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="17440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Cash Flows" sheetId="1" r:id="rId1"/>
     <sheet name="Annual Profits" sheetId="2" r:id="rId2"/>
+    <sheet name="Annual Cash Flows (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Annual Profits (2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,8 +60,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Talles Tatagiba Martins de Souza</author>
+  </authors>
+  <commentList>
+    <comment ref="A73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Talles Tatagiba Martins de Souza:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I couldn't understand. If you go down you stante that these items are the ones that should be changed ...</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
   <si>
     <t>How to Calculate Changes in Annual Cash Flow for One Property</t>
   </si>
@@ -1604,13 +1645,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="26900" topLeftCell="K1"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
@@ -1628,12 +1669,12 @@
     <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -1645,7 +1686,7 @@
       <c r="I2" s="84"/>
       <c r="J2" s="96"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="85"/>
       <c r="B3" s="30" t="s">
         <v>1</v>
@@ -1659,7 +1700,7 @@
       <c r="I3" s="57"/>
       <c r="J3" s="86"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="85"/>
       <c r="B4" s="71" t="s">
         <v>2</v>
@@ -1673,7 +1714,7 @@
       <c r="I4" s="57"/>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="85"/>
       <c r="B5" s="75" t="s">
         <v>3</v>
@@ -1689,7 +1730,7 @@
       <c r="I5" s="57"/>
       <c r="J5" s="86"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="85"/>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
@@ -1701,7 +1742,7 @@
       <c r="I6" s="57"/>
       <c r="J6" s="86"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="85"/>
       <c r="B7" s="57"/>
       <c r="C7" s="90" t="s">
@@ -1721,7 +1762,7 @@
       <c r="I7" s="57"/>
       <c r="J7" s="86"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="85"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -1743,7 +1784,7 @@
       <c r="I8" s="57"/>
       <c r="J8" s="86"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="85"/>
       <c r="B9" s="32" t="s">
         <v>13</v>
@@ -1757,7 +1798,7 @@
       <c r="I9" s="57"/>
       <c r="J9" s="86"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="85"/>
       <c r="B10" s="34" t="s">
         <v>14</v>
@@ -1783,7 +1824,7 @@
       <c r="I10" s="57"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="85"/>
       <c r="B11" s="32" t="s">
         <v>15</v>
@@ -1797,7 +1838,7 @@
       <c r="I11" s="57"/>
       <c r="J11" s="86"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
       <c r="B12" s="34" t="s">
         <v>16</v>
@@ -1823,7 +1864,7 @@
       <c r="I12" s="57"/>
       <c r="J12" s="86"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="85"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
@@ -1849,7 +1890,7 @@
       <c r="I13" s="57"/>
       <c r="J13" s="86"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="85"/>
       <c r="B14" s="34"/>
       <c r="C14" s="23"/>
@@ -1861,7 +1902,7 @@
       <c r="I14" s="57"/>
       <c r="J14" s="86"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="85"/>
       <c r="B15" s="32" t="s">
         <v>18</v>
@@ -1875,7 +1916,7 @@
       <c r="I15" s="57"/>
       <c r="J15" s="86"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="85"/>
       <c r="B16" s="34" t="s">
         <v>19</v>
@@ -1898,7 +1939,7 @@
       <c r="I16" s="57"/>
       <c r="J16" s="86"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="85"/>
       <c r="B17" s="34" t="s">
         <v>20</v>
@@ -1922,7 +1963,7 @@
       <c r="I17" s="57"/>
       <c r="J17" s="86"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="85"/>
       <c r="B18" s="34" t="s">
         <v>21</v>
@@ -1947,7 +1988,7 @@
       <c r="I18" s="57"/>
       <c r="J18" s="86"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="85"/>
       <c r="B19" s="34" t="s">
         <v>22</v>
@@ -1972,7 +2013,7 @@
       <c r="I19" s="57"/>
       <c r="J19" s="86"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="85"/>
       <c r="B20" s="32" t="s">
         <v>23</v>
@@ -1997,7 +2038,7 @@
       <c r="I20" s="57"/>
       <c r="J20" s="86"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="85"/>
       <c r="B21" s="34"/>
       <c r="C21" s="17"/>
@@ -2009,7 +2050,7 @@
       <c r="I21" s="57"/>
       <c r="J21" s="86"/>
     </row>
-    <row r="22" spans="1:17" ht="23" customHeight="1">
+    <row r="22" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="85"/>
       <c r="B22" s="27" t="s">
         <v>24</v>
@@ -2035,7 +2076,7 @@
       <c r="I22" s="57"/>
       <c r="J22" s="86"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="85"/>
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
@@ -2047,7 +2088,7 @@
       <c r="I23" s="57"/>
       <c r="J23" s="86"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -2061,7 +2102,7 @@
       <c r="I24" s="57"/>
       <c r="J24" s="86"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="85"/>
       <c r="B25" s="2" t="s">
         <v>26</v>
@@ -2084,7 +2125,7 @@
       <c r="J25" s="86"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="85"/>
       <c r="B26" s="57"/>
       <c r="C26" s="14">
@@ -2114,7 +2155,7 @@
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="85"/>
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
@@ -2133,7 +2174,7 @@
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="85"/>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -2162,7 +2203,7 @@
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="85"/>
       <c r="B29" s="57"/>
       <c r="C29" s="13">
@@ -2191,7 +2232,7 @@
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="85"/>
       <c r="B30" s="57"/>
       <c r="C30" s="59"/>
@@ -2210,7 +2251,7 @@
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="85"/>
       <c r="B31" s="57"/>
       <c r="C31" s="5" t="s">
@@ -2237,7 +2278,7 @@
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="85"/>
       <c r="B32" s="53" t="s">
         <v>40</v>
@@ -2266,7 +2307,7 @@
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="85"/>
       <c r="B33" s="51" t="s">
         <v>41</v>
@@ -2287,7 +2328,7 @@
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="85"/>
       <c r="B34" s="54" t="s">
         <v>42</v>
@@ -2316,7 +2357,7 @@
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="85"/>
       <c r="B35" s="57"/>
       <c r="C35" s="55">
@@ -2342,7 +2383,7 @@
       <c r="M35" s="25"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="85"/>
       <c r="B36" s="57"/>
       <c r="C36" s="59"/>
@@ -2358,7 +2399,7 @@
       <c r="M36" s="25"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="85"/>
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
@@ -2374,7 +2415,7 @@
       <c r="M37" s="25"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="85"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
@@ -2390,7 +2431,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="85"/>
       <c r="B39" s="1" t="s">
         <v>47</v>
@@ -2408,7 +2449,7 @@
       <c r="M39" s="25"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="85"/>
       <c r="B40" s="2" t="s">
         <v>48</v>
@@ -2424,7 +2465,7 @@
       <c r="I40" s="57"/>
       <c r="J40" s="86"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="85"/>
       <c r="B41" s="57"/>
       <c r="C41" s="27" t="s">
@@ -2438,7 +2479,7 @@
       <c r="I41" s="57"/>
       <c r="J41" s="86"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="85"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -2450,7 +2491,7 @@
       <c r="I42" s="57"/>
       <c r="J42" s="86"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="85"/>
       <c r="B43" s="2" t="s">
         <v>51</v>
@@ -2466,7 +2507,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="86"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="85"/>
       <c r="B44" s="57"/>
       <c r="C44" s="34" t="s">
@@ -2480,7 +2521,7 @@
       <c r="I44" s="33"/>
       <c r="J44" s="86"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="85"/>
       <c r="B45" s="57"/>
       <c r="C45" s="27" t="s">
@@ -2494,7 +2535,7 @@
       <c r="I45" s="69"/>
       <c r="J45" s="86"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="85"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -2506,7 +2547,7 @@
       <c r="I46" s="57"/>
       <c r="J46" s="86"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="85"/>
       <c r="B47" s="3" t="s">
         <v>55</v>
@@ -2520,7 +2561,7 @@
       <c r="I47" s="57"/>
       <c r="J47" s="86"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="85"/>
       <c r="B48" s="57"/>
       <c r="C48" s="3" t="s">
@@ -2534,7 +2575,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="86"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="85"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57"/>
@@ -2546,7 +2587,7 @@
       <c r="I49" s="57"/>
       <c r="J49" s="86"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="85"/>
       <c r="B50" s="3" t="s">
         <v>57</v>
@@ -2560,7 +2601,7 @@
       <c r="I50" s="57"/>
       <c r="J50" s="86"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="85"/>
       <c r="B51" s="57"/>
       <c r="C51" s="70" t="s">
@@ -2574,7 +2615,7 @@
       <c r="I51" s="57"/>
       <c r="J51" s="86"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="85"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -2586,7 +2627,7 @@
       <c r="I52" s="57"/>
       <c r="J52" s="86"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="85"/>
       <c r="B53" s="3" t="s">
         <v>59</v>
@@ -2600,7 +2641,7 @@
       <c r="I53" s="57"/>
       <c r="J53" s="86"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="85"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -2612,7 +2653,7 @@
       <c r="I54" s="57"/>
       <c r="J54" s="86"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="85"/>
       <c r="B55" s="3" t="s">
         <v>60</v>
@@ -2626,7 +2667,7 @@
       <c r="I55" s="57"/>
       <c r="J55" s="86"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="85"/>
       <c r="B56" s="57"/>
       <c r="C56" s="30" t="s">
@@ -2640,7 +2681,7 @@
       <c r="I56" s="11"/>
       <c r="J56" s="86"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="85"/>
       <c r="B57" s="57"/>
       <c r="C57" s="34" t="s">
@@ -2654,7 +2695,7 @@
       <c r="I57" s="33"/>
       <c r="J57" s="86"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="85"/>
       <c r="B58" s="57"/>
       <c r="C58" s="34" t="s">
@@ -2668,7 +2709,7 @@
       <c r="I58" s="33"/>
       <c r="J58" s="86"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="85"/>
       <c r="B59" s="57"/>
       <c r="C59" s="27" t="s">
@@ -2682,7 +2723,7 @@
       <c r="I59" s="69"/>
       <c r="J59" s="86"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="85"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -2694,7 +2735,7 @@
       <c r="I60" s="57"/>
       <c r="J60" s="86"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="85"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -2706,7 +2747,7 @@
       <c r="I61" s="57"/>
       <c r="J61" s="86"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="85"/>
       <c r="B62" s="3" t="s">
         <v>65</v>
@@ -2722,7 +2763,7 @@
       <c r="I62" s="57"/>
       <c r="J62" s="86"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="85"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -2734,7 +2775,7 @@
       <c r="I63" s="57"/>
       <c r="J63" s="86"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="89"/>
       <c r="B64" s="87"/>
       <c r="C64" s="87"/>
@@ -2746,38 +2787,38 @@
       <c r="I64" s="87"/>
       <c r="J64" s="88"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="80" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="78"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" s="81" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="79"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" s="30" t="s">
         <v>70</v>
       </c>
@@ -2786,7 +2827,7 @@
       <c r="E73" s="31"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="34" t="s">
         <v>71</v>
       </c>
@@ -2795,7 +2836,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="33"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" s="34" t="s">
         <v>72</v>
       </c>
@@ -2804,14 +2845,14 @@
       <c r="E75" s="17"/>
       <c r="F75" s="33"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" s="27"/>
       <c r="C76" s="68"/>
       <c r="D76" s="68"/>
       <c r="E76" s="68"/>
       <c r="F76" s="69"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>73</v>
       </c>
@@ -2820,11 +2861,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2832,11 +2868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
@@ -2846,12 +2882,12 @@
     <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -2860,7 +2896,7 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
@@ -2869,7 +2905,7 @@
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -2878,7 +2914,7 @@
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="90" t="s">
@@ -2895,7 +2931,7 @@
       </c>
       <c r="G5" s="56"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="10" t="s">
         <v>75</v>
@@ -2914,7 +2950,7 @@
       </c>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="32" t="s">
         <v>13</v>
@@ -2925,7 +2961,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="34" t="s">
         <v>76</v>
@@ -2948,7 +2984,7 @@
       </c>
       <c r="G8" s="56"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="32" t="s">
         <v>15</v>
@@ -2959,7 +2995,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="34" t="s">
         <v>77</v>
@@ -2982,7 +3018,7 @@
       </c>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="32" t="s">
         <v>78</v>
@@ -3005,7 +3041,7 @@
       </c>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="34"/>
       <c r="C12" s="23"/>
@@ -3014,7 +3050,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="32" t="s">
         <v>79</v>
@@ -3025,7 +3061,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="101" t="s">
         <v>80</v>
@@ -3047,7 +3083,7 @@
       </c>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="34" t="s">
         <v>20</v>
@@ -3068,7 +3104,7 @@
       </c>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="34" t="s">
         <v>21</v>
@@ -3090,7 +3126,7 @@
       </c>
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="34" t="s">
         <v>22</v>
@@ -3112,7 +3148,7 @@
       </c>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="73" t="s">
         <v>23</v>
@@ -3134,7 +3170,7 @@
       </c>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="34"/>
       <c r="C19" s="17"/>
@@ -3143,7 +3179,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="56"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="27" t="s">
         <v>24</v>
@@ -3166,7 +3202,7 @@
       </c>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -3175,7 +3211,7 @@
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -3184,7 +3220,7 @@
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="2" t="s">
         <v>81</v>
@@ -3203,7 +3239,7 @@
       </c>
       <c r="G23" s="57"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="72">
         <f>E30/5</f>
@@ -3226,7 +3262,7 @@
       </c>
       <c r="G24" s="57"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -3235,7 +3271,7 @@
       <c r="F25" s="56"/>
       <c r="G25" s="57"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
       <c r="C26" s="2" t="s">
@@ -3252,7 +3288,7 @@
       </c>
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="76" t="s">
         <v>82</v>
@@ -3273,7 +3309,7 @@
       </c>
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="77" t="s">
         <v>83</v>
@@ -3284,7 +3320,7 @@
       <c r="F28" s="59"/>
       <c r="G28" s="57"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
       <c r="C29" s="5" t="s">
@@ -3301,7 +3337,7 @@
       </c>
       <c r="G29" s="59"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="93">
@@ -3318,7 +3354,7 @@
       </c>
       <c r="G30" s="58"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="59"/>
@@ -3327,7 +3363,7 @@
       <c r="F31" s="59"/>
       <c r="G31" s="58"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="5" t="s">
@@ -3344,7 +3380,7 @@
       </c>
       <c r="G32" s="58"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="55">
@@ -3363,7 +3399,7 @@
       </c>
       <c r="G33" s="58"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
       <c r="C34" s="59"/>
@@ -3372,7 +3408,7 @@
       <c r="F34" s="59"/>
       <c r="G34" s="58"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="2" t="s">
@@ -3385,7 +3421,7 @@
       <c r="F35" s="59"/>
       <c r="G35" s="58"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
@@ -3394,22 +3430,22 @@
       <c r="F36" s="59"/>
       <c r="G36" s="58"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="80" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>73</v>
       </c>
@@ -3417,10 +3453,1820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="26900" topLeftCell="K1"/>
+      <selection activeCell="D30" sqref="D30"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.1640625" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="86"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
+      <c r="B4" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="86"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="85"/>
+      <c r="B5" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="86"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="86"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="85"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="86"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
+      <c r="B9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="85"/>
+      <c r="B10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23">
+        <f>F26</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="D10" s="23">
+        <f>F26</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="E10" s="23">
+        <f>F26</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="F10" s="35">
+        <f>F26</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
+      <c r="B12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23">
+        <f>C10</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="D12" s="18">
+        <f>F29</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="E12" s="18">
+        <f>F29</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="F12" s="36">
+        <f>F29</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
+      <c r="B13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="28">
+        <f>C12-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <f>D12-D10</f>
+        <v>10081.786702183777</v>
+      </c>
+      <c r="E13" s="28">
+        <f>E12-E10</f>
+        <v>10081.786702183777</v>
+      </c>
+      <c r="F13" s="37">
+        <f>F12-F10</f>
+        <v>10081.786702183777</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="86"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="85"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="86"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="85"/>
+      <c r="B15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="86"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="85"/>
+      <c r="B16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
+        <f>E32</f>
+        <v>30000</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="86"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="85"/>
+      <c r="B17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
+        <f>F32</f>
+        <v>6000</v>
+      </c>
+      <c r="F17" s="39">
+        <f>F32</f>
+        <v>6000</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="85"/>
+      <c r="B18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="38">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38">
+        <f>C35</f>
+        <v>3600</v>
+      </c>
+      <c r="E18" s="38">
+        <f>C35</f>
+        <v>3600</v>
+      </c>
+      <c r="F18" s="39">
+        <f>C35</f>
+        <v>3600</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="86"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="85"/>
+      <c r="B19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38">
+        <f>F35</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="E19" s="38">
+        <f>F35</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F35</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="86"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="85"/>
+      <c r="B20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29">
+        <f>SUM(D16:D19)</f>
+        <v>42980.953600000001</v>
+      </c>
+      <c r="E20" s="29">
+        <f>SUM(E16:E19)</f>
+        <v>18980.953600000001</v>
+      </c>
+      <c r="F20" s="40">
+        <f>SUM(F16:F19)</f>
+        <v>18980.953600000001</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="86"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="85"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="86"/>
+    </row>
+    <row r="22" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="85"/>
+      <c r="B22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="41">
+        <f>C13+C20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <f>D13-D20</f>
+        <v>-32899.16689781622</v>
+      </c>
+      <c r="E22" s="41">
+        <f>E13-E20</f>
+        <v>-8899.1668978162234</v>
+      </c>
+      <c r="F22" s="7">
+        <f>F13-F20</f>
+        <v>-8899.1668978162234</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="86"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="85"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="85"/>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="86"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="85"/>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="86"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="85"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="14">
+        <v>1060</v>
+      </c>
+      <c r="D26" s="22">
+        <f>36/37</f>
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="E26" s="15">
+        <f>D26*C26</f>
+        <v>1031.3513513513515</v>
+      </c>
+      <c r="F26" s="42">
+        <f>E26*12</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="85"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="85"/>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="85"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="13">
+        <v>114</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.77146000000000003</v>
+      </c>
+      <c r="E29" s="20">
+        <f>D29*C32*C29*(1-D32)</f>
+        <v>1871.5002431999997</v>
+      </c>
+      <c r="F29" s="44">
+        <f>E29*12</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="85"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="85"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="85"/>
+      <c r="B32" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="52">
+        <v>30.4</v>
+      </c>
+      <c r="D32" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="50">
+        <v>30000</v>
+      </c>
+      <c r="F32" s="62">
+        <v>6000</v>
+      </c>
+      <c r="G32" s="59"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="85"/>
+      <c r="B33" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="85"/>
+      <c r="B34" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="85"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="55">
+        <v>3600</v>
+      </c>
+      <c r="D35" s="49">
+        <v>100</v>
+      </c>
+      <c r="E35" s="43">
+        <f>D29*C32*12/3</f>
+        <v>93.809535999999994</v>
+      </c>
+      <c r="F35" s="63">
+        <f>D35*E35</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="85"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="85"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="85"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="85"/>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="85"/>
+      <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="86"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="85"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="86"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="85"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="86"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="85"/>
+      <c r="B43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="86"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="85"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="86"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="85"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="86"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="85"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="86"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="85"/>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="86"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="85"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="86"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="85"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="86"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="85"/>
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="86"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="85"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="86"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="85"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="86"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="85"/>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="86"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="85"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="86"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="85"/>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="86"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="85"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="86"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="85"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="86"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="85"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="86"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="85"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="86"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="85"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="86"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="85"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="86"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="85"/>
+      <c r="B62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="86"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="85"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="86"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="89"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="88"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="79"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="9"/>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="33"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="33"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="27"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="69"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="56"/>
+      <c r="B6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="56"/>
+      <c r="B7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="56"/>
+      <c r="B8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="23">
+        <f>F24</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="D8" s="23">
+        <f>F24</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="E8" s="23">
+        <f>F24</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="F8" s="35">
+        <f>F24</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="56"/>
+      <c r="B9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="56"/>
+      <c r="B10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="23">
+        <f>F24</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="D10" s="18">
+        <f>F27</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="E10" s="18">
+        <f>F27</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="F10" s="36">
+        <f>F27</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="28">
+        <f>C10-C8</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <f>D10-D8</f>
+        <v>10081.786702183777</v>
+      </c>
+      <c r="E11" s="28">
+        <f>E10-E8</f>
+        <v>10081.786702183777</v>
+      </c>
+      <c r="F11" s="37">
+        <f>F10-F8</f>
+        <v>10081.786702183777</v>
+      </c>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0</v>
+      </c>
+      <c r="D14" s="99">
+        <f>E30/$D$35</f>
+        <v>6000</v>
+      </c>
+      <c r="E14" s="99">
+        <f>E30/D$35</f>
+        <v>6000</v>
+      </c>
+      <c r="F14" s="100">
+        <f>E30/D35</f>
+        <v>6000</v>
+      </c>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="56"/>
+      <c r="B15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="38">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38">
+        <f>F30</f>
+        <v>6000</v>
+      </c>
+      <c r="F15" s="39">
+        <f>F30</f>
+        <v>6000</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="56"/>
+      <c r="B16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
+        <f>C33</f>
+        <v>3600</v>
+      </c>
+      <c r="E16" s="38">
+        <f>C33</f>
+        <v>3600</v>
+      </c>
+      <c r="F16" s="39">
+        <f>C33</f>
+        <v>3600</v>
+      </c>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0</v>
+      </c>
+      <c r="D17" s="38">
+        <f>F33</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="E17" s="38">
+        <f>F33</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="F17" s="39">
+        <f>F33</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="56"/>
+      <c r="B18" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29">
+        <f>SUM(D14:D17)</f>
+        <v>18980.953600000001</v>
+      </c>
+      <c r="E18" s="29">
+        <f>SUM(E14:E17)</f>
+        <v>24980.953600000001</v>
+      </c>
+      <c r="F18" s="29">
+        <f>SUM(F14:F17)</f>
+        <v>24980.953600000001</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="56"/>
+      <c r="B20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="41">
+        <f>C11+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="41">
+        <f>D11-D18</f>
+        <v>-8899.1668978162234</v>
+      </c>
+      <c r="E20" s="41">
+        <f>E11-E18</f>
+        <v>-14899.166897816223</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F11-F18</f>
+        <v>-14899.166897816223</v>
+      </c>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="56"/>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="56"/>
+      <c r="B24" s="72">
+        <f>E30/5</f>
+        <v>6000</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1060</v>
+      </c>
+      <c r="D24" s="22">
+        <f>36/37</f>
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="E24" s="15">
+        <f>D24*C24</f>
+        <v>1031.3513513513515</v>
+      </c>
+      <c r="F24" s="42">
+        <f>E24*12</f>
+        <v>12376.216216216217</v>
+      </c>
+      <c r="G24" s="57"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="13">
+        <v>114</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.77146000000000003</v>
+      </c>
+      <c r="E27" s="20">
+        <f>D27*C30*C27*(1-D30)</f>
+        <v>1871.5002431999997</v>
+      </c>
+      <c r="F27" s="44">
+        <f>E27*12</f>
+        <v>22458.002918399994</v>
+      </c>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="93">
+        <v>30.4</v>
+      </c>
+      <c r="D30" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="50">
+        <v>30000</v>
+      </c>
+      <c r="F30" s="62">
+        <v>6000</v>
+      </c>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="58"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55">
+        <v>3600</v>
+      </c>
+      <c r="D33" s="49">
+        <v>100</v>
+      </c>
+      <c r="E33" s="43">
+        <f>D27*C30*12/3</f>
+        <v>93.809535999999994</v>
+      </c>
+      <c r="F33" s="63">
+        <f>D33*E33</f>
+        <v>9380.9535999999989</v>
+      </c>
+      <c r="G33" s="58"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="58"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="58"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>